--- a/测试结果.xlsx
+++ b/测试结果.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\Python\test_googleAPI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D24481F-8CD2-4D3A-89A6-598C78861F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB396E7D-2799-4671-A746-5EA16381BEEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22597" yWindow="15" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>文件名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,8 +39,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>preFileName:sample_daoxuehao_math_senior_500</t>
+    <t>sample_daoxuehao_math_senior_500</t>
+  </si>
+  <si>
+    <t>duguang_edu_kuake_geography_sample</t>
+  </si>
+  <si>
+    <t>sample_daoxuehao_math_bixiu_500</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mind_daoxuehao_book_quest_chemistry_sample500</t>
+  </si>
+  <si>
+    <t>sample_daoxuehao_history_500</t>
+  </si>
+  <si>
+    <t>sample_daoxuehao_xuanxiu1_500</t>
+  </si>
+  <si>
+    <t>sample_daoxuehao_math_primary_500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sample_daoxuehao_xuanxiu2_500</t>
+  </si>
+  <si>
+    <t>mind_daoxuehao_book_quest_physics_sample500(1)</t>
+  </si>
+  <si>
+    <t>sample_daoxuehao_math_middle_500</t>
+  </si>
+  <si>
+    <t>sample_daoxuehao_geography_5000</t>
   </si>
 </sst>
 </file>
@@ -365,15 +396,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="46" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -392,10 +424,126 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>111859</v>
+        <v>1795438</v>
       </c>
       <c r="C2">
-        <v>0.26300000000000001</v>
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>8407879</v>
+      </c>
+      <c r="C3">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>1667968</v>
+      </c>
+      <c r="C4">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>123377</v>
+      </c>
+      <c r="C5">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>1604713</v>
+      </c>
+      <c r="C6">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>1848019</v>
+      </c>
+      <c r="C7">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>1755311</v>
+      </c>
+      <c r="C8">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>1895786</v>
+      </c>
+      <c r="C9">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>234773</v>
+      </c>
+      <c r="C10">
+        <v>6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>1703736</v>
+      </c>
+      <c r="C11">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>1528186</v>
+      </c>
+      <c r="C12">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <f>SUM(B2:B12)</f>
+        <v>22565186</v>
       </c>
     </row>
   </sheetData>

--- a/测试结果.xlsx
+++ b/测试结果.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\Python\test_googleAPI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB396E7D-2799-4671-A746-5EA16381BEEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B62D31-31CE-4207-9770-10395D8C7107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22597" yWindow="15" windowWidth="22695" windowHeight="14595" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
   <si>
     <t>文件名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -398,8 +399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="A1:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -551,4 +552,156 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B88C25-A9D6-461B-B44E-269263B24302}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="47.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>40127</v>
+      </c>
+      <c r="C2">
+        <v>0.112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>8407879</v>
+      </c>
+      <c r="C3">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>63255</v>
+      </c>
+      <c r="C4">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>123377</v>
+      </c>
+      <c r="C5">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>76527</v>
+      </c>
+      <c r="C6">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>52581</v>
+      </c>
+      <c r="C7">
+        <v>9.7000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>51575</v>
+      </c>
+      <c r="C8">
+        <v>8.5999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>47767</v>
+      </c>
+      <c r="C9">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>111396</v>
+      </c>
+      <c r="C10">
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>35768</v>
+      </c>
+      <c r="C11">
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>1293413</v>
+      </c>
+      <c r="C12">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/测试结果.xlsx
+++ b/测试结果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\Python\test_googleAPI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B62D31-31CE-4207-9770-10395D8C7107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95D0BA7-6E0B-40A0-B99D-1600D16E4E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22597" yWindow="15" windowWidth="22695" windowHeight="14595" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-13215" yWindow="2017" windowWidth="21600" windowHeight="11386" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
   <si>
     <t>文件名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,6 +73,10 @@
   </si>
   <si>
     <t>sample_daoxuehao_geography_5000</t>
+  </si>
+  <si>
+    <t>增加关键词修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -556,10 +560,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B88C25-A9D6-461B-B44E-269263B24302}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="D12" sqref="A1:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -567,7 +571,7 @@
     <col min="1" max="1" width="47.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -577,8 +581,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -588,8 +595,11 @@
       <c r="C2">
         <v>0.112</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -600,7 +610,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -610,8 +620,11 @@
       <c r="C4">
         <v>8.5000000000000006E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -622,7 +635,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -633,7 +646,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -643,8 +656,11 @@
       <c r="C7">
         <v>9.7000000000000003E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -654,8 +670,11 @@
       <c r="C8">
         <v>8.5999999999999993E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -665,8 +684,11 @@
       <c r="C9">
         <v>8.4000000000000005E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -677,7 +699,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -687,8 +709,11 @@
       <c r="C11">
         <v>8.7999999999999995E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <v>8.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>

--- a/测试结果.xlsx
+++ b/测试结果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\Python\test_googleAPI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95D0BA7-6E0B-40A0-B99D-1600D16E4E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{074BC19E-32F3-43B1-B658-FB59AB901425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-13215" yWindow="2017" windowWidth="21600" windowHeight="11386" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22597" yWindow="15" windowWidth="22695" windowHeight="14595" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -407,13 +407,13 @@
       <selection activeCell="C12" sqref="A1:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="46" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -424,7 +424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -435,7 +435,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -446,7 +446,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -457,7 +457,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -468,7 +468,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -479,7 +479,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -490,7 +490,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -501,7 +501,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -512,7 +512,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -523,7 +523,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -534,7 +534,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -545,7 +545,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B13">
         <f>SUM(B2:B12)</f>
         <v>22565186</v>
@@ -560,18 +560,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B88C25-A9D6-461B-B44E-269263B24302}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="A1:D12"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="47.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.06640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.06640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -585,7 +587,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -598,8 +600,12 @@
       <c r="D2">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F2">
+        <f>B2*C2</f>
+        <v>4494.2240000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -609,8 +615,12 @@
       <c r="C3">
         <v>4.8000000000000001E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F3">
+        <f t="shared" ref="F3:F12" si="0">B3*C3</f>
+        <v>403578.19199999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -623,8 +633,12 @@
       <c r="D4">
         <v>6.0999999999999999E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>5376.6750000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -634,8 +648,12 @@
       <c r="C5">
         <v>6.4000000000000001E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>7896.1280000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -645,8 +663,12 @@
       <c r="C6">
         <v>5.5E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>4208.9849999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -659,8 +681,12 @@
       <c r="D7">
         <v>8.7999999999999995E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>5100.357</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -673,8 +699,12 @@
       <c r="D8">
         <v>7.4999999999999997E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>4435.45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -687,8 +717,12 @@
       <c r="D9">
         <v>7.4999999999999997E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>4012.4280000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -698,8 +732,12 @@
       <c r="C10">
         <v>7.1999999999999995E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>8020.5119999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -712,8 +750,12 @@
       <c r="D11">
         <v>8.2000000000000003E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>3147.5839999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -722,6 +764,20 @@
       </c>
       <c r="C12">
         <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>55616.758999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B13">
+        <f>SUM(B2:B12)</f>
+        <v>10303665</v>
+      </c>
+      <c r="F13">
+        <f>SUM(F2:F12)</f>
+        <v>505887.29399999999</v>
       </c>
     </row>
   </sheetData>
